--- a/earlywarning-pom/earlywarning-config/src/baf-instances/39_Inst_BusinessLine_ALEX.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/39_Inst_BusinessLine_ALEX.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/HD 500 Gb/Documenti Michele/Lavoro/configurazione ALEX/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26180" windowHeight="11400" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="26175" windowHeight="11400" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Business_Line" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +63,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +87,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +111,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -135,7 +135,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -159,7 +159,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -183,7 +183,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -207,7 +207,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -231,7 +231,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -255,7 +255,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -673,7 +673,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1221,6 +1221,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10296525" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1757,6 +1805,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10439400" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2293,6 +2389,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9667875" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2829,6 +2973,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3365,6 +3557,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10058400" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3901,6 +4141,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9077325" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4437,6 +4725,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10048875" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4973,6 +5309,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5509,6 +5893,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6042,6 +6474,54 @@
           <a:endParaRPr lang="it-IT"/>
         </a:p>
       </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -6317,16 +6797,16 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="37.1640625" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6335,7 +6815,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -6352,7 +6832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -6369,7 +6849,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -6386,7 +6866,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -6418,16 +6898,16 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.1640625" customWidth="1"/>
-    <col min="5" max="6" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
+    <col min="5" max="6" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -6437,7 +6917,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -6457,7 +6937,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -6477,7 +6957,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -6497,7 +6977,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -6528,20 +7008,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0"/>
+    <sheetView topLeftCell="A17" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
     <col min="9" max="9" width="39" customWidth="1"/>
-    <col min="10" max="13" width="11.6640625" customWidth="1"/>
+    <col min="10" max="13" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -6576,7 +7056,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -6611,7 +7091,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6646,7 +7126,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -6681,7 +7161,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>46</v>
       </c>
@@ -6716,7 +7196,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -6740,7 +7220,7 @@
       </c>
       <c r="K8"/>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>48</v>
       </c>
@@ -6775,7 +7255,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -6799,7 +7279,7 @@
       </c>
       <c r="K11"/>
     </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>50</v>
       </c>
@@ -6834,7 +7314,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>51</v>
       </c>
@@ -6869,7 +7349,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>52</v>
       </c>
@@ -6904,7 +7384,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>53</v>
       </c>
@@ -6939,7 +7419,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -6963,7 +7443,7 @@
       </c>
       <c r="K18"/>
     </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -6987,7 +7467,7 @@
       </c>
       <c r="K19"/>
     </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -7011,7 +7491,7 @@
       </c>
       <c r="K20"/>
     </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -7038,7 +7518,7 @@
       </c>
       <c r="K21"/>
     </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -7065,7 +7545,7 @@
       </c>
       <c r="K22"/>
     </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -7089,7 +7569,7 @@
       </c>
       <c r="K23"/>
     </row>
-    <row r="25" spans="1:11" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>57</v>
       </c>
@@ -7124,7 +7604,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>58</v>
       </c>
@@ -7159,7 +7639,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="1" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>59</v>
       </c>
@@ -7194,7 +7674,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -7218,7 +7698,7 @@
       </c>
       <c r="K29"/>
     </row>
-    <row r="30" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -7242,7 +7722,7 @@
       </c>
       <c r="K30"/>
     </row>
-    <row r="31" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -7266,7 +7746,7 @@
       </c>
       <c r="K31"/>
     </row>
-    <row r="32" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -7293,7 +7773,7 @@
       </c>
       <c r="K32"/>
     </row>
-    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -7317,7 +7797,7 @@
       </c>
       <c r="K33"/>
     </row>
-    <row r="35" spans="1:11" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>60</v>
       </c>
@@ -7365,17 +7845,17 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="37.1640625" customWidth="1"/>
-    <col min="5" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -7385,7 +7865,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -7405,7 +7885,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -7425,7 +7905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -7445,7 +7925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -7478,16 +7958,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="37.1640625" customWidth="1"/>
-    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -7496,7 +7976,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -7528,16 +8008,16 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="37.1640625" customWidth="1"/>
-    <col min="5" max="6" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
+    <col min="5" max="6" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -7547,7 +8027,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -7567,7 +8047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -7587,7 +8067,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -7607,7 +8087,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -7638,19 +8118,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="19.5" customWidth="1"/>
+    <col min="3" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -7660,7 +8140,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -7680,7 +8160,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -7700,7 +8180,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -7720,7 +8200,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -7755,17 +8235,17 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.1640625" customWidth="1"/>
-    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -7780,7 +8260,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -7815,7 +8295,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -7844,7 +8324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -7870,7 +8350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -7911,16 +8391,16 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="37.1640625" customWidth="1"/>
-    <col min="5" max="6" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
+    <col min="5" max="6" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -7930,7 +8410,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -7963,16 +8443,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="37.1640625" customWidth="1"/>
-    <col min="5" max="6" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
+    <col min="5" max="6" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -7982,7 +8462,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -8015,17 +8495,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="37.1640625" customWidth="1"/>
-    <col min="5" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="10" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="10" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -8039,7 +8519,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
